--- a/data/trans_dic/P25_N_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_N_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas</t>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 14,95</t>
+          <t>0,0; 19,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 24,35</t>
+          <t>3,18; 27,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 17,36</t>
+          <t>0,0; 25,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 30,01</t>
+          <t>5,88; 32,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,94; 42,7</t>
+          <t>6,83; 28,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,3; 43,15</t>
+          <t>15,06; 40,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 19,63</t>
+          <t>9,09; 33,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,02; 28,81</t>
+          <t>11,67; 38,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 27,22</t>
+          <t>5,43; 20,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11,84; 29,6</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,29; 23,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,69; 30,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>27,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,18%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 32,25</t>
+          <t>10,02; 37,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 24,4</t>
+          <t>6,78; 30,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 27,64</t>
+          <t>7,02; 32,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,55; 49,74</t>
+          <t>4,4; 27,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,61; 37,87</t>
+          <t>21,24; 47,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 34,5</t>
+          <t>15,17; 38,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,78; 39,4</t>
+          <t>11,53; 33,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 27,16</t>
+          <t>23,46; 51,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,67; 27,46</t>
+          <t>18,13; 38,56</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13,45; 31,41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,0; 28,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,08; 33,86</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>31,6%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39,84%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,62; 44,72</t>
+          <t>11,91; 32,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,0; 29,45</t>
+          <t>7,56; 26,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,18; 36,79</t>
+          <t>15,37; 38,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,12; 47,21</t>
+          <t>19,19; 42,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,66; 45,76</t>
+          <t>29,08; 47,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,66; 46,79</t>
+          <t>26,93; 45,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 41,36</t>
+          <t>29,59; 48,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,9; 35,19</t>
+          <t>37,43; 57,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,66; 38,8</t>
+          <t>24,99; 39,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21,43; 35,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>26,08; 41,33</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32,41; 49,35</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,3%</t>
+          <t>52,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>56,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,71%</t>
+          <t>49,09%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>47,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44,68%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>52,68%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,15; 44,48</t>
+          <t>27,59; 48,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,69; 47,96</t>
+          <t>31,0; 53,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,96; 41,7</t>
+          <t>23,7; 44,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,01; 62,11</t>
+          <t>38,64; 60,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,85; 59,75</t>
+          <t>49,18; 67,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,37; 63,51</t>
+          <t>41,59; 61,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,01; 51,97</t>
+          <t>46,51; 65,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,53; 51,52</t>
+          <t>45,35; 64,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,09; 51,44</t>
+          <t>41,58; 55,96</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40,34; 54,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>37,74; 52,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45,53; 59,5</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>52,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>51,77%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>53,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>59,98%</t>
+          <t>60,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,15%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>67,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,6%</t>
+          <t>70,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>59,06%</t>
+          <t>56,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49,06%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>58,61%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>61,29%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,0; 61,37</t>
+          <t>40,18; 67,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,79; 53,44</t>
+          <t>31,82; 57,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40,64; 60,81</t>
+          <t>39,45; 64,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,95; 69,85</t>
+          <t>39,36; 65,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,09; 68,93</t>
+          <t>45,9; 72,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,26; 76,46</t>
+          <t>40,39; 66,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,22; 61,98</t>
+          <t>53,9; 79,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,34; 58,3</t>
+          <t>56,45; 81,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,24; 65,68</t>
+          <t>47,33; 67,05</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>38,52; 58,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>48,77; 67,26</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>52,36; 70,72</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>60,61%</t>
+          <t>72,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>62,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80,0%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,49%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>71,51%</t>
+          <t>75,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>63,68%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>74,08%</t>
+          <t>77,16%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>72,76%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>69,62%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>80,53%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,59; 71,5</t>
+          <t>54,96; 84,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,46; 65,63</t>
+          <t>44,3; 74,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,6; 68,87</t>
+          <t>46,74; 76,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67,53; 87,42</t>
+          <t>59,93; 87,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,02; 80,85</t>
+          <t>66,2; 90,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,95; 91,51</t>
+          <t>70,8; 92,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,22; 78,17</t>
+          <t>57,69; 87,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,65; 71,64</t>
+          <t>70,78; 93,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,55; 82,58</t>
+          <t>67,89; 85,05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>62,58; 81,59</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59,98; 79,23</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>71,15; 87,92</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>47,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>41,43%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38,07%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>37,99%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>46,15%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,53; 37,58</t>
+          <t>28,97; 41,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,28; 33,67</t>
+          <t>25,88; 36,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,78; 33,41</t>
+          <t>25,07; 36,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>45,07; 52,66</t>
+          <t>31,03; 45,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,78; 49,94</t>
+          <t>42,26; 51,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,91; 55,6</t>
+          <t>39,94; 49,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,99; 43,96</t>
+          <t>39,82; 50,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,01; 40,43</t>
+          <t>48,96; 59,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>36,74; 43,84</t>
+          <t>37,5; 45,53</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 41,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>34,0; 42,31</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>41,19; 50,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12657</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9688</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25078</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21864</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31610</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24468</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34417</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28633</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44267</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34156</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59495</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20789</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3357; 29065</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 32835</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8572; 47967</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9158; 38141</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18081; 48477</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11137; 40518</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16978; 55395</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13092; 49074</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26730; 66832</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18240; 59121</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36959; 87676</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35862</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23456</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26287</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30426</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56421</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33467</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26840</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59993</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>92284</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>56923</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>53126</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>90419</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16906; 63402</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9718; 43780</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10825; 50630</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10019; 63688</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35076; 78221</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19218; 48988</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14568; 42015</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>38094; 82850</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>60522; 128745</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>36329; 84829</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>30872; 79769</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>51011; 132091</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34332</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21619</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35739</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55284</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>100316</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>73606</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>76966</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>112045</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>134648</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>95225</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>112706</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>167329</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19309; 52423</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10164; 36066</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21149; 53537</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34590; 77451</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>76795; 126140</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56387; 95049</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>59308; 96908</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>89724; 138466</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>106489; 166207</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>73651; 122103</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>88187; 139754</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>136108; 207251</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>71270</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>66520</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>50147</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>100538</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>127578</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>97273</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>96707</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>117639</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>198848</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>163794</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>146854</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>218177</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51505; 91280</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>49972; 85460</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>37016; 69084</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>77821; 122000</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>107400; 147420</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>77337; 113753</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>80220; 113042</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>96480; 138159</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>168430; 226683</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>140055; 188242</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>124028; 171415</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>188581; 246420</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>83365</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>60127</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>63773</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>82303</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>69915</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>50699</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>62753</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96488</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>153280</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>110826</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>126526</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>178791</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>63255; 105488</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>42029; 75865</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48598; 79230</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>60863; 101139</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>53336; 84672</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>37892; 62757</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>49953; 73574</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>77364; 111372</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>129513; 183472</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>87001; 131195</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>105269; 145194</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>152735; 206287</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>78871</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>51956</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>56650</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>104142</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>111664</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>88083</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83101</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>176626</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>190534</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>140039</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>139751</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>280768</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>60075; 92481</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>38692; 65331</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42130; 69135</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>82605; 120124</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>91088; 123973</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>74437; 96993</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>63814; 96509</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>149210; 196073</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>167641; 210012</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>120458; 157035</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>120397; 159047</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>248080; 306534</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>310468</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>236334</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>242284</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>397771</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>487758</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>374739</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>370835</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>597209</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>798227</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>611074</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>613119</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>994979</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>258235; 368419</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>197731; 281939</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>197842; 288489</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>325108; 472538</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>437579; 537738</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>335948; 417835</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>328544; 413297</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>542563; 658425</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>722439; 877163</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>551883; 673197</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>548824; 682949</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>887931; 1096455</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>